--- a/notebooks/UBAP2L/input/UBAP2L_Jia_2022.xlsx
+++ b/notebooks/UBAP2L/input/UBAP2L_Jia_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/UBAP2L/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662DD8CE-BA17-3C47-8760-761C9D642C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45532ABF-A17D-E44B-A885-58E0F4157558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{7CC99280-11B7-FC45-923D-2258C2568684}"/>
   </bookViews>
@@ -1463,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A4C726-C5EF-C848-A7EF-DAC091C5DFB1}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:M59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
